--- a/订单界面.xlsx
+++ b/订单界面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="19" activeTab="27"/>
+    <workbookView windowWidth="28130" windowHeight="12550" firstSheet="19" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="订单界面" sheetId="1" r:id="rId1"/>
@@ -6140,13 +6140,13 @@
     <t>税费*该业务员的业绩比例</t>
   </si>
   <si>
-    <t>(应收-代收)-(应付-代付)-税费+提成</t>
+    <t>(应收-应付)-税费+提成</t>
   </si>
   <si>
     <t>提成前业绩/(应收-代收)</t>
   </si>
   <si>
-    <t>(应收-代收)-(应付-代付)-税费</t>
+    <t>(应收-应付)-税费</t>
   </si>
   <si>
     <t>提成后业绩/（应收-代收）</t>
@@ -6271,9 +6271,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -6385,60 +6385,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6467,16 +6432,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6490,11 +6476,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6506,6 +6499,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -6513,17 +6522,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6558,12 +6558,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6602,13 +6602,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6620,61 +6674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6692,6 +6698,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6704,7 +6740,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6716,73 +6782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7646,34 +7646,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7695,9 +7677,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7717,28 +7734,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7750,10 +7750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7762,133 +7762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="69" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8656,7 +8656,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="66675"/>
-              <a:ext cx="11972925" cy="5334000"/>
+              <a:ext cx="11972925" cy="5241925"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8702,7 +8702,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="38100" y="0"/>
-              <a:ext cx="7296150" cy="6267450"/>
+              <a:ext cx="7296150" cy="6159500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8978,10 +8978,10 @@
   <dimension ref="A1:V295"/>
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -9209,7 +9209,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" ht="15" spans="1:11">
+    <row r="10" ht="14.75" spans="1:11">
       <c r="A10" s="176"/>
       <c r="B10" s="143"/>
       <c r="C10" s="143"/>
@@ -10856,7 +10856,7 @@
     <row r="90" spans="9:9">
       <c r="I90"/>
     </row>
-    <row r="91" ht="15" spans="1:9">
+    <row r="91" ht="14.75" spans="1:9">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -10890,7 +10890,7 @@
       <c r="J93" s="22"/>
       <c r="K93" s="189"/>
     </row>
-    <row r="94" ht="15" spans="1:11">
+    <row r="94" ht="14.75" spans="1:11">
       <c r="A94" s="176"/>
       <c r="B94" s="143"/>
       <c r="C94" s="143"/>
@@ -10907,7 +10907,7 @@
       <c r="I95"/>
       <c r="J95" s="22"/>
     </row>
-    <row r="96" ht="15" spans="1:10">
+    <row r="96" ht="14.75" spans="1:10">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -10951,7 +10951,7 @@
       <c r="J101" s="22"/>
       <c r="K101" s="189"/>
     </row>
-    <row r="102" ht="15" spans="1:11">
+    <row r="102" ht="14.75" spans="1:11">
       <c r="A102" s="176"/>
       <c r="B102" s="143"/>
       <c r="C102" s="143"/>
@@ -10968,7 +10968,7 @@
       <c r="I103"/>
       <c r="J103" s="22"/>
     </row>
-    <row r="104" ht="15" spans="1:11">
+    <row r="104" ht="14.75" spans="1:11">
       <c r="A104" s="198" t="s">
         <v>143</v>
       </c>
@@ -10989,7 +10989,7 @@
       <c r="J104" s="213"/>
       <c r="K104" s="198"/>
     </row>
-    <row r="105" ht="15" spans="1:11">
+    <row r="105" ht="14.75" spans="1:11">
       <c r="A105" s="199"/>
       <c r="B105" s="200"/>
       <c r="C105" s="200"/>
@@ -11002,7 +11002,7 @@
       <c r="J105" s="214"/>
       <c r="K105" s="215"/>
     </row>
-    <row r="106" ht="15" spans="1:11">
+    <row r="106" ht="14.75" spans="1:11">
       <c r="A106" s="201" t="s">
         <v>44</v>
       </c>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="K114" s="219"/>
     </row>
-    <row r="115" ht="15" spans="1:11">
+    <row r="115" ht="14.75" spans="1:11">
       <c r="A115" s="207" t="s">
         <v>107</v>
       </c>
@@ -11903,7 +11903,7 @@
       <c r="J133" s="22"/>
       <c r="K133" s="189"/>
     </row>
-    <row r="134" ht="15" spans="1:11">
+    <row r="134" ht="14.75" spans="1:11">
       <c r="A134" s="176"/>
       <c r="B134" s="143"/>
       <c r="C134" s="143"/>
@@ -11921,7 +11921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" ht="15" spans="1:9">
+    <row r="136" ht="14.75" spans="1:9">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -12048,7 +12048,7 @@
       <c r="J144" s="22"/>
       <c r="K144" s="189"/>
     </row>
-    <row r="145" ht="15" spans="1:11">
+    <row r="145" ht="14.75" spans="1:11">
       <c r="A145" s="176"/>
       <c r="B145" s="143"/>
       <c r="C145" s="143"/>
@@ -12740,10 +12740,10 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -12758,7 +12758,7 @@
     <col min="16" max="16" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="20.25" spans="1:1">
+    <row r="2" ht="20" spans="1:1">
       <c r="A2" s="104" t="s">
         <v>420</v>
       </c>
@@ -13315,10 +13315,10 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
@@ -13458,10 +13458,10 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
@@ -13577,10 +13577,10 @@
   <dimension ref="A5:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
@@ -13649,10 +13649,10 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
@@ -13997,10 +13997,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -14042,10 +14042,10 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="34.875" customWidth="1"/>
@@ -14489,10 +14489,10 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A24"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
@@ -14728,10 +14728,10 @@
   <dimension ref="A2:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -14774,7 +14774,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:8">
+    <row r="4" ht="14.75" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>629</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="8:8">
+    <row r="5" ht="14.75" spans="8:8">
       <c r="H5" s="73" t="s">
         <v>361</v>
       </c>
@@ -15492,10 +15492,10 @@
   <dimension ref="A2:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C18"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -15525,12 +15525,12 @@
         <v>625</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="8:8">
+    <row r="3" ht="14.75" spans="8:8">
       <c r="H3" s="7" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:8">
+    <row r="4" ht="14.75" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>660</v>
       </c>
@@ -15933,10 +15933,10 @@
   <dimension ref="A4:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -16167,10 +16167,10 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
@@ -16235,7 +16235,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:9">
+    <row r="5" ht="14.75" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>684</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="9:9">
+    <row r="6" ht="14.75" spans="9:9">
       <c r="I6" s="73" t="s">
         <v>361</v>
       </c>
@@ -16580,7 +16580,7 @@
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
     </row>
-    <row r="21" ht="15"/>
+    <row r="21" ht="14.75"/>
     <row r="22" ht="20.25" customHeight="1" spans="1:6">
       <c r="A22" s="7" t="s">
         <v>705</v>
@@ -16744,10 +16744,10 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
@@ -17081,10 +17081,10 @@
   <dimension ref="A2:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="15" max="15" width="11.125" customWidth="1"/>
@@ -17529,10 +17529,10 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -17548,12 +17548,12 @@
     <col min="15" max="15" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="15:15">
+    <row r="1" ht="14.75" spans="15:15">
       <c r="O1" s="32" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="6:15">
+    <row r="2" ht="18.25" spans="6:15">
       <c r="F2" s="32" t="s">
         <v>769</v>
       </c>
@@ -17761,7 +17761,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" ht="15.75" spans="1:15">
+    <row r="13" ht="15.5" spans="1:15">
       <c r="A13" s="23" t="s">
         <v>790</v>
       </c>
@@ -17809,10 +17809,10 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="9" style="22"/>
@@ -17998,10 +17998,10 @@
   <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -18151,10 +18151,10 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
@@ -18373,10 +18373,10 @@
   <dimension ref="A5:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
@@ -18496,11 +18496,11 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
@@ -18854,10 +18854,10 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -19074,7 +19074,7 @@
       <c r="O30" s="29"/>
       <c r="P30" s="29"/>
     </row>
-    <row r="31" ht="15" spans="1:16">
+    <row r="31" ht="14.75" spans="1:16">
       <c r="A31" s="143"/>
       <c r="B31" s="143"/>
       <c r="C31" s="143"/>
@@ -19123,7 +19123,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" ht="15"/>
+    <row r="39" ht="14.75"/>
     <row r="40" spans="1:7">
       <c r="A40" s="79" t="s">
         <v>45</v>
@@ -19160,7 +19160,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:7">
+    <row r="42" ht="14.75" spans="1:7">
       <c r="A42" s="148" t="s">
         <v>64</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:1">
+    <row r="51" ht="14.75" spans="1:1">
       <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:8">
@@ -19312,7 +19312,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="1:8">
+    <row r="59" ht="14.75" spans="1:8">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -19461,10 +19461,10 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="34.75" customWidth="1"/>
   </cols>
@@ -19700,10 +19700,10 @@
   <dimension ref="A4:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -19714,7 +19714,7 @@
     <col min="7" max="7" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="15" spans="1:1">
+    <row r="4" ht="14.75" spans="1:1">
       <c r="A4" s="7" t="s">
         <v>296</v>
       </c>
@@ -19897,10 +19897,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
@@ -19952,10 +19952,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="A19" sqref="A19:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="106.375" customWidth="1"/>
@@ -20008,12 +20008,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="2:2">
+    <row r="6" ht="14.75" spans="2:2">
       <c r="B6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="2:11">
+    <row r="7" ht="14.75" spans="2:11">
       <c r="B7" t="s">
         <v>321</v>
       </c>
@@ -20038,12 +20038,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:1">
+    <row r="10" ht="14.75" spans="1:1">
       <c r="A10" s="17" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="6:11">
+    <row r="11" ht="14.75" spans="6:11">
       <c r="F11" s="7" t="s">
         <v>327</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:3">
+    <row r="12" ht="14.75" spans="1:3">
       <c r="A12" s="123" t="s">
         <v>331</v>
       </c>
@@ -20198,7 +20198,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="139"/>
     </row>
-    <row r="22" ht="15" spans="6:9">
+    <row r="22" ht="14.75" spans="6:9">
       <c r="F22" s="7" t="s">
         <v>359</v>
       </c>
@@ -20206,7 +20206,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="139"/>
     </row>
-    <row r="23" ht="15" spans="7:11">
+    <row r="23" ht="14.75" spans="7:11">
       <c r="G23" s="135" t="s">
         <v>347</v>
       </c>
@@ -20370,8 +20370,8 @@
         <v>369</v>
       </c>
     </row>
-    <row r="42" ht="15"/>
-    <row r="43" ht="15" spans="6:13">
+    <row r="42" ht="14.75"/>
+    <row r="43" ht="14.75" spans="6:13">
       <c r="F43" s="7" t="s">
         <v>370</v>
       </c>
@@ -20510,10 +20510,10 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
@@ -20650,10 +20650,10 @@
   <dimension ref="A3:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
@@ -20686,8 +20686,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" ht="15"/>
-    <row r="5" ht="15" spans="1:14">
+    <row r="4" ht="14.75"/>
+    <row r="5" ht="14.75" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>397</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" ht="15"/>
+    <row r="8" ht="14.75"/>
     <row r="9" spans="1:11">
       <c r="A9" s="110" t="s">
         <v>305</v>
